--- a/REVER_DailyTracker_20200709.xlsx
+++ b/REVER_DailyTracker_20200709.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AA1332-9643-427F-AA0D-FB105895D871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -26,8 +20,8 @@
     <sheet name="Mathes" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -92,12 +86,18 @@
   </si>
   <si>
     <t>Hayaai website changes are completed</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Implementing the given db and test projects of sonia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -141,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -288,10 +294,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -349,7 +356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -401,7 +408,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -595,29 +602,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -641,7 +648,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -711,22 +718,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -822,22 +829,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -947,22 +954,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -988,7 +995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1009,7 +1016,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1082,22 +1089,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1124,12 +1131,24 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44021</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1193,22 +1212,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1304,22 +1323,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1416,22 +1435,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1527,22 +1546,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1638,22 +1657,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1749,22 +1768,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/REVER_DailyTracker_20200709.xlsx
+++ b/REVER_DailyTracker_20200709.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27CBB976-FEB3-4771-9A52-A9FF27F94295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF32D1C5-2449-4378-ACE4-0EF10595FD75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="75">
   <si>
     <t>Task</t>
   </si>
@@ -297,6 +297,15 @@
     <t>1. New issues are raised while running a communication board to pending clear notice.
 Hence, we may have to look new approach.
 2. Checking  the email from contact form and login and sigup form in Haiyaai and gss website.</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Modules - Best Denki, All Denka, Stream</t>
+  </si>
+  <si>
+    <t>Email from Google forms</t>
   </si>
 </sst>
 </file>
@@ -306,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +336,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -405,10 +430,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -445,9 +473,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{236973A4-CC33-4AA9-82B1-6484A1631DD1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -762,22 +799,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -798,7 +835,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -808,8 +845,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -821,7 +858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -832,10 +869,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -849,9 +886,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -865,9 +902,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -881,8 +918,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -899,19 +936,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -929,13 +966,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -949,7 +986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -963,7 +1000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -971,7 +1008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -979,12 +1016,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -992,7 +1029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1003,7 +1040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1014,7 +1051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1025,12 +1062,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1041,7 +1078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1052,12 +1089,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1065,7 +1102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1073,7 +1110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1081,7 +1118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1089,12 +1126,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1102,7 +1139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1110,7 +1147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1118,7 +1155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1126,12 +1163,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1139,7 +1176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1147,7 +1184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1155,7 +1192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1163,7 +1200,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1171,12 +1208,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1184,7 +1221,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1192,7 +1229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1200,7 +1237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1208,7 +1245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1216,12 +1253,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1229,7 +1266,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1237,7 +1274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1245,7 +1282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1253,7 +1290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1261,7 +1298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1269,7 +1306,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1277,12 +1314,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1305,18 +1342,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1348,7 +1385,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1357,46 +1394,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1413,22 +1450,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1451,64 +1488,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44021</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>44021</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1529,18 +1584,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1572,7 +1627,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1581,46 +1636,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1641,18 +1696,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1675,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1684,7 +1739,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1693,46 +1748,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1753,18 +1808,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1787,7 +1842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1808,7 +1863,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1817,46 +1872,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1877,18 +1932,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1911,7 +1966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1920,7 +1975,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1929,46 +1984,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1989,18 +2044,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2023,7 +2078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2032,7 +2087,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2041,46 +2096,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2101,18 +2156,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2135,7 +2190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2144,7 +2199,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2153,46 +2208,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2213,18 +2268,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2247,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2256,7 +2311,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2265,46 +2320,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200709.xlsx
+++ b/REVER_DailyTracker_20200709.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF32D1C5-2449-4378-ACE4-0EF10595FD75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4690B75F-3902-4A69-85E3-2C4B7EA4EE55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="77">
   <si>
     <t>Task</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Email from Google forms</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>Invoice Update Correction</t>
   </si>
 </sst>
 </file>
@@ -803,15 +809,15 @@
       <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -846,7 +852,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -872,7 +878,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -904,7 +910,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -972,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -986,7 +992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1163,12 +1169,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45">
+    <row r="150" spans="4:7" ht="43.2">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1342,15 +1348,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1450,19 +1456,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1488,7 +1494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1584,15 +1590,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1692,19 +1698,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1733,9 +1739,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1808,15 +1820,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1932,15 +1944,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2044,15 +2056,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2156,15 +2168,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2268,15 +2280,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
